--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AF8DD1-AB7D-4B10-A6D3-2D505C1C5FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221ADC76-5751-4C87-98A6-2B77C9A9922E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33000" yWindow="1815" windowWidth="28200" windowHeight="18270" activeTab="2" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="210">
   <si>
     <t>Name</t>
   </si>
@@ -620,9 +620,6 @@
   </si>
   <si>
     <t>Last</t>
-  </si>
-  <si>
-    <t>Q222</t>
   </si>
   <si>
     <t>AMC</t>
@@ -795,21 +792,21 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>304.529721</v>
+            <v>304.57807000000003</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>908.9</v>
+            <v>1042.0999999999999</v>
           </cell>
         </row>
         <row r="6">
           <cell r="M6">
-            <v>41</v>
+            <v>38.700000000000003</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1104,7 +1101,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1118,7 +1115,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1518,10 +1515,10 @@
         <v>66</v>
       </c>
       <c r="B37" t="s">
+        <v>196</v>
+      </c>
+      <c r="C37" t="s">
         <v>197</v>
-      </c>
-      <c r="C37" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1529,10 +1526,10 @@
         <v>66</v>
       </c>
       <c r="B38" t="s">
+        <v>202</v>
+      </c>
+      <c r="C38" t="s">
         <v>203</v>
-      </c>
-      <c r="C38" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1540,10 +1537,10 @@
         <v>66</v>
       </c>
       <c r="B39" t="s">
+        <v>204</v>
+      </c>
+      <c r="C39" t="s">
         <v>205</v>
-      </c>
-      <c r="C39" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1551,10 +1548,10 @@
         <v>66</v>
       </c>
       <c r="B40" t="s">
+        <v>208</v>
+      </c>
+      <c r="C40" t="s">
         <v>209</v>
-      </c>
-      <c r="C40" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1730,10 +1727,10 @@
         <v>66</v>
       </c>
       <c r="B15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" t="s">
         <v>207</v>
-      </c>
-      <c r="C15" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -1749,7 +1746,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2058,10 +2055,10 @@
         <v>66</v>
       </c>
       <c r="B27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" t="s">
         <v>199</v>
-      </c>
-      <c r="C27" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -2069,18 +2066,18 @@
         <v>66</v>
       </c>
       <c r="B28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C28" t="s">
         <v>201</v>
-      </c>
-      <c r="C28" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D29" s="5">
         <v>8</v>
@@ -2102,7 +2099,7 @@
         <v>1048.536826</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J29" s="4">
         <v>44887</v>
@@ -2115,30 +2112,30 @@
       <c r="C30" t="s">
         <v>186</v>
       </c>
-      <c r="D30">
-        <v>25.12</v>
+      <c r="D30" s="5">
+        <v>16.600000000000001</v>
       </c>
       <c r="E30" s="2">
         <f>+D30*H30</f>
-        <v>7649.78659152</v>
+        <v>5055.9959620000009</v>
       </c>
       <c r="F30" s="2">
         <f>+[2]Main!$M$5-[2]Main!$M$6</f>
-        <v>867.9</v>
+        <v>1003.3999999999999</v>
       </c>
       <c r="G30" s="2">
         <f>+E30-F30</f>
-        <v>6781.8865915200004</v>
+        <v>4052.5959620000012</v>
       </c>
       <c r="H30" s="2">
         <f>+[2]Main!$M$3</f>
-        <v>304.529721</v>
+        <v>304.57807000000003</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J30" s="4">
-        <v>44887</v>
+        <v>45004</v>
       </c>
     </row>
   </sheetData>
@@ -2154,11 +2151,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9585B95C-4998-4DEA-8748-806E9F518941}">
   <dimension ref="A2:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2334,7 +2331,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2494,10 +2491,10 @@
         <v>66</v>
       </c>
       <c r="B15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" t="s">
         <v>195</v>
-      </c>
-      <c r="C15" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">

--- a/Consumer.xlsx
+++ b/Consumer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221ADC76-5751-4C87-98A6-2B77C9A9922E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820485A2-95BF-F34F-B5B5-3E4394CAF4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
+    <workbookView xWindow="160" yWindow="-19220" windowWidth="20440" windowHeight="14400" activeTab="3" xr2:uid="{A6EEE737-9B19-4F32-992A-1868172E3A60}"/>
   </bookViews>
   <sheets>
     <sheet name="Food-Beverages" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="211">
   <si>
     <t>Name</t>
   </si>
@@ -674,6 +674,9 @@
   </si>
   <si>
     <t>MKC</t>
+  </si>
+  <si>
+    <t>DGE LN</t>
   </si>
 </sst>
 </file>
@@ -787,6 +790,7 @@
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
+      <sheetName val="Second Acts"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -797,25 +801,26 @@
         </row>
         <row r="5">
           <cell r="M5">
-            <v>1042.0999999999999</v>
+            <v>1082</v>
           </cell>
         </row>
         <row r="6">
           <cell r="M6">
-            <v>38.700000000000003</v>
+            <v>25.700000000000003</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -853,7 +858,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -959,7 +964,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1101,7 +1106,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1115,17 +1120,17 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1139,7 +1144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1150,7 +1155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -1161,7 +1166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -1172,7 +1177,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1183,7 +1188,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -1194,7 +1199,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -1205,15 +1210,18 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>66</v>
       </c>
       <c r="B9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -1224,7 +1232,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -1235,7 +1243,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -1246,7 +1254,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -1257,7 +1265,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -1268,7 +1276,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -1279,7 +1287,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -1290,7 +1298,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -1301,7 +1309,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -1312,7 +1320,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -1323,7 +1331,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -1334,7 +1342,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -1345,7 +1353,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -1356,7 +1364,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -1367,7 +1375,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -1378,7 +1386,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -1389,7 +1397,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -1400,7 +1408,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -1411,7 +1419,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -1422,7 +1430,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -1433,7 +1441,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -1444,7 +1452,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -1455,7 +1463,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -1466,7 +1474,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -1477,7 +1485,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -1488,7 +1496,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -1499,7 +1507,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -1510,7 +1518,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -1521,7 +1529,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>66</v>
       </c>
@@ -1532,7 +1540,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -1543,7 +1551,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -1567,16 +1575,16 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1590,7 +1598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1601,7 +1609,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -1612,7 +1620,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -1623,7 +1631,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1634,7 +1642,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -1645,7 +1653,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -1656,7 +1664,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -1667,7 +1675,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -1678,7 +1686,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -1689,7 +1697,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -1700,7 +1708,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -1711,7 +1719,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -1722,7 +1730,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -1742,22 +1750,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36FD397-30CB-4573-A576-98EC0A7849A7}">
   <dimension ref="A2:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="3"/>
-    <col min="10" max="10" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="3"/>
+    <col min="10" max="10" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1786,7 +1794,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1797,7 +1805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -1808,7 +1816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -1819,7 +1827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1830,7 +1838,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -1841,7 +1849,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -1852,7 +1860,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -1863,7 +1871,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -1874,7 +1882,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -1885,7 +1893,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -1896,7 +1904,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -1907,7 +1915,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -1918,7 +1926,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -1929,7 +1937,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -1940,7 +1948,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -1951,7 +1959,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -1962,7 +1970,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -1973,7 +1981,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -1984,7 +1992,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -1995,7 +2003,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -2006,7 +2014,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -2017,7 +2025,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -2028,7 +2036,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -2039,7 +2047,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -2050,7 +2058,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -2061,7 +2069,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -2072,7 +2080,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
         <v>192</v>
       </c>
@@ -2105,7 +2113,7 @@
         <v>44887</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>185</v>
       </c>
@@ -2121,11 +2129,11 @@
       </c>
       <c r="F30" s="2">
         <f>+[2]Main!$M$5-[2]Main!$M$6</f>
-        <v>1003.3999999999999</v>
+        <v>1056.3</v>
       </c>
       <c r="G30" s="2">
         <f>+E30-F30</f>
-        <v>4052.5959620000012</v>
+        <v>3999.6959620000007</v>
       </c>
       <c r="H30" s="2">
         <f>+[2]Main!$M$3</f>
@@ -2151,20 +2159,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9585B95C-4998-4DEA-8748-806E9F518941}">
   <dimension ref="A2:E7"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2178,7 +2186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -2189,7 +2197,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -2200,7 +2208,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -2211,7 +2219,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -2222,7 +2230,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -2249,18 +2257,18 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2274,7 +2282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -2285,7 +2293,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -2296,7 +2304,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -2307,7 +2315,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -2331,16 +2339,16 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2354,7 +2362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -2365,7 +2373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -2376,7 +2384,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -2387,7 +2395,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -2398,7 +2406,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -2409,7 +2417,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -2420,7 +2428,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -2431,7 +2439,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -2442,7 +2450,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -2453,7 +2461,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -2464,7 +2472,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -2475,7 +2483,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -2486,7 +2494,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -2497,7 +2505,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>66</v>
       </c>
